--- a/VegetablesProduction.xlsx
+++ b/VegetablesProduction.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dima_\Documents\UiPath\Explorer_Excel_Practice_2_Excel_Activities\Explorer_Excel_Practice_2_Excel_Activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\RPA\Excel_Automation_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1561C152-5EB9-4A74-B2A4-6B8D72D06CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866C0239-3975-41B8-AF72-557A77E84ADB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="45" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -207,10 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -218,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,7 +251,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[VegetablesProduction.xlsx]PivotTable!ValueTracker</c:name>
+    <c:name>[VegetablesProduction.xlsx]PivotTable!EstValue</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -456,7 +458,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7104-4165-BBCC-40746411697B}"/>
+              <c16:uniqueId val="{00000000-298F-44B5-B50A-B8DA2BF47944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -558,7 +560,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7104-4165-BBCC-40746411697B}"/>
+              <c16:uniqueId val="{00000001-298F-44B5-B50A-B8DA2BF47944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -657,7 +659,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7104-4165-BBCC-40746411697B}"/>
+              <c16:uniqueId val="{00000002-298F-44B5-B50A-B8DA2BF47944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -762,7 +764,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7104-4165-BBCC-40746411697B}"/>
+              <c16:uniqueId val="{00000003-298F-44B5-B50A-B8DA2BF47944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -867,7 +869,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7104-4165-BBCC-40746411697B}"/>
+              <c16:uniqueId val="{00000004-298F-44B5-B50A-B8DA2BF47944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -975,7 +977,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-7104-4165-BBCC-40746411697B}"/>
+              <c16:uniqueId val="{00000005-298F-44B5-B50A-B8DA2BF47944}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -989,11 +991,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1293343536"/>
-        <c:axId val="1293343120"/>
+        <c:axId val="330618968"/>
+        <c:axId val="330620280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1293343536"/>
+        <c:axId val="330618968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,7 +1005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1293343120"/>
+        <c:crossAx val="330620280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1011,7 +1013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1293343120"/>
+        <c:axId val="330620280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1022,7 +1024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1293343536"/>
+        <c:crossAx val="330618968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,23 +1072,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>479425</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199758D0-62C5-95BA-F7B9-362966226499}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9430F7-DDF5-4004-8561-BB810F61239A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,7 +1110,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Dima Robert" refreshedDate="44987.697448032406" createdVersion="1" refreshedVersion="8" recordCount="36" xr:uid="{0D6D8B4A-B964-42AE-BC56-D06163F2393E}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="asus" refreshedDate="45368.35522002315" createdVersion="1" refreshedVersion="6" recordCount="36" xr:uid="{16EF7E9E-96BD-4CA3-826E-05B7D70D0F31}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G37" sheet="Tracker_Updated"/>
   </cacheSource>
@@ -1497,7 +1499,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F73B3A33-47CC-48C9-A561-57BD648C0F71}" name="ValueTracker" cacheId="45" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="8" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" pageOverThenDown="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{26C8C85A-C9B1-401D-9E85-6D0487CA641B}" name="EstValue" cacheId="0" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" chartFormat="1">
   <location ref="A1:H21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0" includeNewItemsInFilter="1">
@@ -2787,11 +2789,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5740C5-F580-44F1-A360-402ADFFC03B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD520C55-454C-4C94-A57C-C051E30A19CA}">
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,15 +2806,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
@@ -2838,253 +2840,334 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>3220.7999999999997</v>
       </c>
-      <c r="E3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
         <v>9996.8000000000011</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>3869.1000000000004</v>
       </c>
-      <c r="H3">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7">
         <v>17086.7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E4">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
         <v>6151.2000000000007</v>
       </c>
-      <c r="H4">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7">
         <v>6151.2000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7">
         <v>3845.6000000000004</v>
       </c>
-      <c r="H5">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7">
         <v>3845.6000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>3220.7999999999997</v>
       </c>
-      <c r="H6">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7">
         <v>3220.7999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7">
         <v>3869.1000000000004</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
         <v>3869.1000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>7335.9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>1355.1999999999998</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>9377.5</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>3696</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>9418.4</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>31183</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>7335.9</v>
       </c>
-      <c r="H9">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7">
         <v>7335.9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E10">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>9377.5</v>
       </c>
-      <c r="H10">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7">
         <v>9377.5</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F11">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>3696</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7">
         <v>3696</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7">
         <v>1355.1999999999998</v>
       </c>
-      <c r="H12">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7">
         <v>1355.1999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G13">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7">
         <v>4292.3999999999996</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>4292.3999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G14">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7">
         <v>5126</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>5126</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7">
         <v>3971.2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>3187.6</v>
       </c>
-      <c r="F15">
+      <c r="E15" s="7"/>
+      <c r="F15" s="7">
         <v>4125</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>9794.9</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>21078.699999999997</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F16">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7">
         <v>4125</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="7"/>
+      <c r="H16" s="7">
         <v>4125</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7">
         <v>3971.2</v>
       </c>
-      <c r="H17">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7">
         <v>3971.2</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7">
         <v>3187.6</v>
       </c>
-      <c r="H18">
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7">
         <v>3187.6</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G19">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7">
         <v>4316.8999999999996</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>4316.8999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G20">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7">
         <v>5478</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>5478</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>10556.699999999999</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>5326.4</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>3187.6</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="7">
         <v>19374.300000000003</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>11690.1</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>19213.3</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>69348.399999999994</v>
       </c>
     </row>
@@ -3102,7 +3185,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="9.140625" style="2"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -3124,7 +3207,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3147,7 +3230,7 @@
       <c r="F2">
         <v>1.3</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="3">
         <v>1016.6</v>
       </c>
     </row>
@@ -3170,7 +3253,7 @@
       <c r="F3">
         <v>1.3</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1173.9000000000001</v>
       </c>
     </row>
@@ -3193,7 +3276,7 @@
       <c r="F4">
         <v>1.3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>997.1</v>
       </c>
     </row>
@@ -3216,7 +3299,7 @@
       <c r="F5">
         <v>1.6</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1473.6</v>
       </c>
     </row>
@@ -3239,7 +3322,7 @@
       <c r="F6">
         <v>1.6</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>980.8</v>
       </c>
     </row>
@@ -3262,7 +3345,7 @@
       <c r="F7">
         <v>1.6</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>1516.8</v>
       </c>
     </row>
@@ -3285,7 +3368,7 @@
       <c r="F8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>1568.6</v>
       </c>
     </row>
@@ -3308,7 +3391,7 @@
       <c r="F9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>490.6</v>
       </c>
     </row>
@@ -3331,7 +3414,7 @@
       <c r="F10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>1161.5999999999999</v>
       </c>
     </row>
@@ -3354,7 +3437,7 @@
       <c r="F11">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>712.8</v>
       </c>
     </row>
@@ -3377,7 +3460,7 @@
       <c r="F12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>411.4</v>
       </c>
     </row>
@@ -3400,7 +3483,7 @@
       <c r="F13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>231</v>
       </c>
     </row>
@@ -3423,7 +3506,7 @@
       <c r="F14">
         <v>2.7</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>1749.6</v>
       </c>
     </row>
@@ -3446,7 +3529,7 @@
       <c r="F15">
         <v>2.7</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>664.2</v>
       </c>
     </row>
@@ -3469,7 +3552,7 @@
       <c r="F16">
         <v>2.7</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <v>1455.3</v>
       </c>
     </row>
@@ -3492,7 +3575,7 @@
       <c r="F17">
         <v>3.3</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="3">
         <v>1890.9</v>
       </c>
     </row>
@@ -3515,7 +3598,7 @@
       <c r="F18">
         <v>3.3</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="3">
         <v>2580.6</v>
       </c>
     </row>
@@ -3538,7 +3621,7 @@
       <c r="F19">
         <v>3.3</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="3">
         <v>2864.4</v>
       </c>
     </row>
@@ -3561,7 +3644,7 @@
       <c r="F20">
         <v>3.8</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="3">
         <v>1056.4000000000001</v>
       </c>
     </row>
@@ -3584,7 +3667,7 @@
       <c r="F21">
         <v>3.8</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="3">
         <v>1729</v>
       </c>
     </row>
@@ -3607,7 +3690,7 @@
       <c r="F22">
         <v>3.8</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="3">
         <v>1060.2</v>
       </c>
     </row>
@@ -3630,7 +3713,7 @@
       <c r="F23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="3">
         <v>2006.4</v>
       </c>
     </row>
@@ -3653,7 +3736,7 @@
       <c r="F24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="3">
         <v>3511.2</v>
       </c>
     </row>
@@ -3676,7 +3759,7 @@
       <c r="F25">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="3">
         <v>633.6</v>
       </c>
     </row>
@@ -3699,7 +3782,7 @@
       <c r="F26">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="3">
         <v>2724.4</v>
       </c>
     </row>
@@ -3722,7 +3805,7 @@
       <c r="F27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="3">
         <v>1592.5</v>
       </c>
     </row>
@@ -3745,7 +3828,7 @@
       <c r="F28">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>4292.3999999999996</v>
       </c>
     </row>
@@ -3768,7 +3851,7 @@
       <c r="F29">
         <v>5.5</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="3">
         <v>4889.5</v>
       </c>
     </row>
@@ -3791,7 +3874,7 @@
       <c r="F30">
         <v>5.5</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="3">
         <v>709.5</v>
       </c>
     </row>
@@ -3814,7 +3897,7 @@
       <c r="F31">
         <v>5.5</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="3">
         <v>3778.5</v>
       </c>
     </row>
@@ -3837,7 +3920,7 @@
       <c r="F32">
         <v>5.5</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>5478</v>
       </c>
     </row>
@@ -3860,7 +3943,7 @@
       <c r="F33">
         <v>5.5</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="3">
         <v>3734.5</v>
       </c>
     </row>
@@ -3883,7 +3966,7 @@
       <c r="F34">
         <v>5.5</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="3">
         <v>1391.5</v>
       </c>
     </row>
@@ -3906,7 +3989,7 @@
       <c r="F35">
         <v>6.6</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="3">
         <v>891</v>
       </c>
     </row>
@@ -3929,7 +4012,7 @@
       <c r="F36">
         <v>6.6</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="3">
         <v>2805</v>
       </c>
     </row>
@@ -3952,11 +4035,12 @@
       <c r="F37">
         <v>6.6</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="3">
         <v>4125</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>